--- a/input/点赞_用户列表.xlsx
+++ b/input/点赞_用户列表.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +423,7 @@
         <v>小羊的盲盒小屋</v>
       </c>
       <c r="B3" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="4">
@@ -463,7 +463,7 @@
         <v>精品日用百货</v>
       </c>
       <c r="B8" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="9">
@@ -479,7 +479,7 @@
         <v>小满生活集</v>
       </c>
       <c r="B10" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="11">
@@ -511,7 +511,7 @@
         <v>品质家电严选社</v>
       </c>
       <c r="B14" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="15">
@@ -575,7 +575,7 @@
         <v>麤麤酱二次元</v>
       </c>
       <c r="B22" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="23">
@@ -591,7 +591,7 @@
         <v>晨天数码铺</v>
       </c>
       <c r="B24" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="25">
@@ -599,7 +599,7 @@
         <v>天冬家居馆</v>
       </c>
       <c r="B25" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="26">
@@ -647,7 +647,7 @@
         <v>靠谱好物优选</v>
       </c>
       <c r="B31" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="32">
@@ -671,7 +671,7 @@
         <v>小鱼精选</v>
       </c>
       <c r="B34" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="35">
@@ -679,7 +679,7 @@
         <v>精品家电小铺</v>
       </c>
       <c r="B35" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="36">
@@ -687,7 +687,7 @@
         <v>家电捡漏小能手</v>
       </c>
       <c r="B36" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="37">
@@ -759,7 +759,7 @@
         <v>MiMi外设坊</v>
       </c>
       <c r="B45" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="46">
@@ -767,7 +767,7 @@
         <v>精品家电好物分享</v>
       </c>
       <c r="B46" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="47">
@@ -791,7 +791,7 @@
         <v>美芽严选折扣店</v>
       </c>
       <c r="B49" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="50">
@@ -815,7 +815,7 @@
         <v>r颜玖</v>
       </c>
       <c r="B52" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="53">
@@ -823,7 +823,7 @@
         <v>暖家优选家居</v>
       </c>
       <c r="B53" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="54">
@@ -831,7 +831,7 @@
         <v>雅雅精致宅</v>
       </c>
       <c r="B54" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="55">
@@ -871,7 +871,7 @@
         <v>小远在路上</v>
       </c>
       <c r="B59" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="60">
@@ -879,7 +879,7 @@
         <v>野思数码家电</v>
       </c>
       <c r="B60" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="61">
@@ -887,7 +887,7 @@
         <v>拿铁美式</v>
       </c>
       <c r="B61" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="62">
@@ -911,7 +911,7 @@
         <v>瑶瑶的视听影院</v>
       </c>
       <c r="B64" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="65">
@@ -943,7 +943,7 @@
         <v>壮壮公主的小铺</v>
       </c>
       <c r="B68" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="69">
@@ -975,7 +975,7 @@
         <v>酷玩潮玩</v>
       </c>
       <c r="B72" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="73">
@@ -991,7 +991,7 @@
         <v>智能萌宠屋</v>
       </c>
       <c r="B74" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="75">
@@ -999,7 +999,7 @@
         <v>小公举的小铺铺</v>
       </c>
       <c r="B75" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="76">
@@ -1055,7 +1055,7 @@
         <v>云云的精品家电</v>
       </c>
       <c r="B82" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="83">
@@ -1087,7 +1087,7 @@
         <v>橙子睡不醒</v>
       </c>
       <c r="B86" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="87">
@@ -1111,7 +1111,7 @@
         <v>戴森到家</v>
       </c>
       <c r="B89" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="90">
@@ -1127,7 +1127,7 @@
         <v>家电小公主</v>
       </c>
       <c r="B91" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="92">
@@ -1191,7 +1191,7 @@
         <v>甜豆数码耳机</v>
       </c>
       <c r="B99" t="str">
-        <v>2026-01-02</v>
+        <v>2026-01-04</v>
       </c>
     </row>
     <row r="100">
@@ -1250,9 +1250,433 @@
         <v>2026-01-02</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>黑猫卡券</v>
+      </c>
+      <c r="B107" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>沐沐谷屋</v>
+      </c>
+      <c r="B108" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>无牙大白鲨</v>
+      </c>
+      <c r="B109" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>绣江小家电中心</v>
+      </c>
+      <c r="B110" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>蹦哒辣椒</v>
+      </c>
+      <c r="B111" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>暖妈家外贸床品</v>
+      </c>
+      <c r="B112" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>小七77</v>
+      </c>
+      <c r="B113" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>飞天云鸽</v>
+      </c>
+      <c r="B114" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>开心生活馆</v>
+      </c>
+      <c r="B115" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v/>
+      </c>
+      <c r="B116" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>可可精品家居馆</v>
+      </c>
+      <c r="B117" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>阿陈陈陈</v>
+      </c>
+      <c r="B118" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>晨晨精品家电小铺</v>
+      </c>
+      <c r="B119" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>梓莹精品</v>
+      </c>
+      <c r="B120" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>白绝火影代肝</v>
+      </c>
+      <c r="B121" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>吕小花儿开</v>
+      </c>
+      <c r="B122" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>二喵精选</v>
+      </c>
+      <c r="B123" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>拾光优选</v>
+      </c>
+      <c r="B124" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>闲趣好物仓</v>
+      </c>
+      <c r="B125" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>暖居家电铺</v>
+      </c>
+      <c r="B126" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>陆陆潮玩</v>
+      </c>
+      <c r="B127" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>家居好物</v>
+      </c>
+      <c r="B128" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>宅家鼠鼠</v>
+      </c>
+      <c r="B129" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>我要四点半碎觉</v>
+      </c>
+      <c r="B130" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>TT游戏店</v>
+      </c>
+      <c r="B131" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>沐川户外小队</v>
+      </c>
+      <c r="B132" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>yiyi精致小屋</v>
+      </c>
+      <c r="B133" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>sean在拍摄</v>
+      </c>
+      <c r="B134" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>七宝的小铺子</v>
+      </c>
+      <c r="B135" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>在逃二次元周边</v>
+      </c>
+      <c r="B136" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>糖豆小屋母婴店</v>
+      </c>
+      <c r="B137" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>南朝攒钱的甜圈</v>
+      </c>
+      <c r="B138" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>糯糯团子软软</v>
+      </c>
+      <c r="B139" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>猫儿响叮铛</v>
+      </c>
+      <c r="B140" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>二次元在逃大佛</v>
+      </c>
+      <c r="B141" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>小源精品数码</v>
+      </c>
+      <c r="B142" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>晓晓数码</v>
+      </c>
+      <c r="B143" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>睡个甜甜的宝可梦</v>
+      </c>
+      <c r="B144" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>蓝胖子的小店</v>
+      </c>
+      <c r="B145" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>玉子市场</v>
+      </c>
+      <c r="B146" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>小六全球酒店代订AAAA</v>
+      </c>
+      <c r="B147" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>单核数码</v>
+      </c>
+      <c r="B148" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>啊啊啊啊嘘</v>
+      </c>
+      <c r="B149" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>蟹蟹的模玩世界</v>
+      </c>
+      <c r="B150" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>无人机代理商</v>
+      </c>
+      <c r="B151" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>楼兰的小屋</v>
+      </c>
+      <c r="B152" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>电商数据工作室</v>
+      </c>
+      <c r="B153" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>安静小家电</v>
+      </c>
+      <c r="B154" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>CC妙脆角</v>
+      </c>
+      <c r="B155" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>日光城的童书绘本馆</v>
+      </c>
+      <c r="B156" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>精品家电合作社</v>
+      </c>
+      <c r="B157" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>妙妙的后备仓</v>
+      </c>
+      <c r="B158" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>宠喵喵杂货铺</v>
+      </c>
+      <c r="B159" t="str">
+        <v>2026-01-04</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B106"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B159"/>
   </ignoredErrors>
 </worksheet>
 </file>